--- a/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
@@ -11,13 +11,14 @@
     <sheet name="交易亏损数据" sheetId="2" r:id="rId2"/>
     <sheet name="亏损统计" sheetId="3" r:id="rId3"/>
     <sheet name="资金管理" sheetId="4" r:id="rId4"/>
+    <sheet name="凯利公式" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="444">
   <si>
     <t xml:space="preserve">VRB BUY : </t>
   </si>
@@ -1339,6 +1340,61 @@
   <si>
     <t>RB9999 波幅率交易系统资金管理
 (亏损金额=最大预估亏损金额，系统策略=80%，每笔平均盈利=849）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获胜后的
+净赢率
+（rW）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利公式二</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*=(p*rW-q*rL)/(rLrW)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有资金应进行
+下次投注的比例（f*）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率（b）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获胜率（p）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败率（q）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯利公式一</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f*=(bp-q)/b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>净损失率（rL）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=1-q</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 / 20190222</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1793,7 +1849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2172,6 +2228,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2304,7 +2397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2416,6 +2509,21 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="34" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,8 +2545,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="34" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2551,24 +2665,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="190026880"/>
-        <c:axId val="190028416"/>
+        <c:axId val="189052416"/>
+        <c:axId val="189053952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190026880"/>
+        <c:axId val="189052416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190028416"/>
+        <c:crossAx val="189053952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190028416"/>
+        <c:axId val="189053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,20 +2690,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190026880"/>
+        <c:crossAx val="189052416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2758,24 +2871,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190884864"/>
-        <c:axId val="190898944"/>
+        <c:axId val="189971840"/>
+        <c:axId val="189793408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190884864"/>
+        <c:axId val="189971840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190898944"/>
+        <c:crossAx val="189793408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190898944"/>
+        <c:axId val="189793408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,7 +2896,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190884864"/>
+        <c:crossAx val="189971840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2796,7 +2909,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2965,24 +3078,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190796160"/>
-        <c:axId val="190797696"/>
+        <c:axId val="189813504"/>
+        <c:axId val="189815040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190796160"/>
+        <c:axId val="189813504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190797696"/>
+        <c:crossAx val="189815040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190797696"/>
+        <c:axId val="189815040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +3103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190796160"/>
+        <c:crossAx val="189813504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,7 +3116,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,24 +3180,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190813312"/>
-        <c:axId val="190814848"/>
+        <c:axId val="189830656"/>
+        <c:axId val="189832192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190813312"/>
+        <c:axId val="189830656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190814848"/>
+        <c:crossAx val="189832192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190814848"/>
+        <c:axId val="189832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3205,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190813312"/>
+        <c:crossAx val="189830656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3105,7 +3218,88 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>资金管理!$B$120:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31167.611094542201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32487.611094542201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34467.611094542197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35907.611094542197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="253847424"/>
+        <c:axId val="253848960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="253847424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253848960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253848960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253847424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3273,6 +3467,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11669,11 +11893,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:C118"/>
+      <pane ySplit="8" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11684,11 +11908,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -11716,7 +11940,7 @@
       <c r="A4" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="37">
         <v>958</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -11769,11 +11993,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="6" t="s">
@@ -11793,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="26">
-        <f>B2-(B4*(1+B5)*B8)</f>
+        <f>B2-(B$4*(1+B$5)*B8)</f>
         <v>25950</v>
       </c>
       <c r="C11" s="10">
@@ -11806,11 +12030,11 @@
         <v>2</v>
       </c>
       <c r="B12" s="27">
-        <f t="shared" ref="B12:B16" si="0">B11-(B$4*(1+B$5)*C11)</f>
+        <f>B11-(B$4*(1+B$5)*C11)</f>
         <v>23938.2</v>
       </c>
       <c r="C12" s="12">
-        <f t="shared" ref="C12:C21" si="1">ROUNDDOWN((B12*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <f t="shared" ref="C12:C21" si="0">ROUNDDOWN((B12*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="1"/>
@@ -11820,11 +12044,11 @@
         <v>3</v>
       </c>
       <c r="B13" s="27">
+        <f t="shared" ref="B13:B16" si="1">B12-(B$4*(1+B$5)*C12)</f>
+        <v>21926.400000000001</v>
+      </c>
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>21926.400000000001</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11833,11 +12057,11 @@
         <v>4</v>
       </c>
       <c r="B14" s="27">
+        <f t="shared" si="1"/>
+        <v>19914.600000000002</v>
+      </c>
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>19914.600000000002</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11846,11 +12070,11 @@
         <v>5</v>
       </c>
       <c r="B15" s="27">
+        <f t="shared" si="1"/>
+        <v>17902.800000000003</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>17902.800000000003</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11859,11 +12083,11 @@
         <v>6</v>
       </c>
       <c r="B16" s="27">
+        <f t="shared" si="1"/>
+        <v>15891.000000000004</v>
+      </c>
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
-        <v>15891.000000000004</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11876,7 +12100,7 @@
         <v>13879.200000000004</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11889,7 +12113,7 @@
         <v>13879.200000000004</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11902,7 +12126,7 @@
         <v>13879.200000000004</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11915,7 +12139,7 @@
         <v>13879.200000000004</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11928,16 +12152,16 @@
         <v>13879.200000000004</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" thickBot="1">
       <c r="A23" s="18" t="s">
@@ -12549,11 +12773,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="39" customHeight="1" thickBot="1">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="44"/>
     </row>
     <row r="71" spans="1:3" ht="17.25" thickBot="1">
       <c r="A71" s="18" t="s">
@@ -13165,11 +13389,11 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="B118" s="38"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
     </row>
     <row r="119" spans="1:3" ht="16.5">
       <c r="A119" s="18" t="s">
@@ -13187,8 +13411,8 @@
         <v>425</v>
       </c>
       <c r="B120" s="17">
-        <f>30000+580</f>
-        <v>30580</v>
+        <f>30000+(580*B8)</f>
+        <v>31167.611094542201</v>
       </c>
       <c r="C120" s="17">
         <f>ROUNDDOWN((B120*B$3/100)/(B$4*(1+B$5)),0)</f>
@@ -13201,7 +13425,7 @@
       </c>
       <c r="B121" s="17">
         <f>B120+(660*C120)</f>
-        <v>31900</v>
+        <v>32487.611094542201</v>
       </c>
       <c r="C121" s="17">
         <f>ROUNDDOWN((B121*B$3/100)/(B$4*(1+B$5)),0)</f>
@@ -13214,10 +13438,23 @@
       </c>
       <c r="B122" s="17">
         <f>B121+(990*C121)</f>
-        <v>33880</v>
+        <v>34467.611094542197</v>
       </c>
       <c r="C122" s="17">
         <f>ROUNDDOWN((B122*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5">
+      <c r="A123" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B123" s="17">
+        <f>B122+(720*C122)</f>
+        <v>35907.611094542197</v>
+      </c>
+      <c r="C123" s="17">
+        <f>ROUNDDOWN((B123*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -13234,4 +13471,145 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33">
+      <c r="A1" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="39">
+        <f>(B2*C2-D2)/B2</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="B2" s="39">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="39">
+        <f>(D7*B7-E7*C7)/(B7*C7)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="G7" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="440">
   <si>
     <t xml:space="preserve">VRB BUY : </t>
   </si>
@@ -1317,19 +1317,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1 / 20181226</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>交易次数 / 卖平交易时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 / 20190114</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 / 20190118</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1391,10 +1379,6 @@
   </si>
   <si>
     <t>p=1-q</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 / 20190222</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1402,9 +1386,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2397,7 +2382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,6 +2508,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2665,24 +2656,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="189052416"/>
-        <c:axId val="189053952"/>
+        <c:axId val="254048512"/>
+        <c:axId val="74006912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189052416"/>
+        <c:axId val="254048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189053952"/>
+        <c:crossAx val="74006912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189053952"/>
+        <c:axId val="74006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2681,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189052416"/>
+        <c:crossAx val="254048512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2702,7 +2693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2871,24 +2862,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189971840"/>
-        <c:axId val="189793408"/>
+        <c:axId val="74072448"/>
+        <c:axId val="74073984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189971840"/>
+        <c:axId val="74072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189793408"/>
+        <c:crossAx val="74073984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189793408"/>
+        <c:axId val="74073984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2887,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189971840"/>
+        <c:crossAx val="74072448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2909,7 +2900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3078,24 +3069,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189813504"/>
-        <c:axId val="189815040"/>
+        <c:axId val="74094080"/>
+        <c:axId val="74095616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189813504"/>
+        <c:axId val="74094080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189815040"/>
+        <c:crossAx val="74095616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189815040"/>
+        <c:axId val="74095616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,20 +3094,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189813504"/>
+        <c:crossAx val="74094080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3180,24 +3170,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189830656"/>
-        <c:axId val="189832192"/>
+        <c:axId val="74115328"/>
+        <c:axId val="75956224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189830656"/>
+        <c:axId val="74115328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189832192"/>
+        <c:crossAx val="75956224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189832192"/>
+        <c:axId val="75956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,20 +3195,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189830656"/>
+        <c:crossAx val="74115328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3238,12 +3227,42 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>资金管理!$A$120:$A$126</c:f>
+              <c:numCache>
+                <c:formatCode>mm/dd/yy;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$120:$B$123</c:f>
+              <c:f>资金管理!$B$120:$B$126</c:f>
               <c:numCache>
-                <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0.00;[Red]\-#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>31167.611094542201</c:v>
                 </c:pt>
@@ -3256,37 +3275,46 @@
                 <c:pt idx="3">
                   <c:v>35907.611094542197</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>37287.611094542197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36047.611094542197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34747.611094542197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="253847424"/>
-        <c:axId val="253848960"/>
+        <c:axId val="75996160"/>
+        <c:axId val="76006144"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="253847424"/>
+      <c:dateAx>
+        <c:axId val="75996160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253848960"/>
+        <c:crossAx val="76006144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="253848960"/>
+        <c:axId val="76006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253847424"/>
+        <c:crossAx val="75996160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3299,7 +3327,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3475,19 +3503,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="8" name="图表 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11893,11 +11921,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+      <pane ySplit="8" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11908,11 +11936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -11993,11 +12021,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="6" t="s">
@@ -12157,11 +12185,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A22" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" thickBot="1">
       <c r="A23" s="18" t="s">
@@ -12773,11 +12801,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="39" customHeight="1" thickBot="1">
-      <c r="A70" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
     </row>
     <row r="71" spans="1:3" ht="17.25" thickBot="1">
       <c r="A71" s="18" t="s">
@@ -13389,15 +13417,15 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="44"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="46"/>
     </row>
     <row r="119" spans="1:3" ht="16.5">
       <c r="A119" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>405</v>
@@ -13406,55 +13434,94 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5">
-      <c r="A120" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" s="17">
+    <row r="120" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A120" s="42">
+        <v>43460</v>
+      </c>
+      <c r="B120" s="32">
         <f>30000+(580*B8)</f>
         <v>31167.611094542201</v>
       </c>
       <c r="C120" s="17">
-        <f>ROUNDDOWN((B120*B$3/100)/(B$4*(1+B$5)),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5">
-      <c r="A121" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B121" s="17">
+        <f t="shared" ref="C120:C125" si="22">ROUNDDOWN((B120*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A121" s="42">
+        <v>43479</v>
+      </c>
+      <c r="B121" s="32">
         <f>B120+(660*C120)</f>
         <v>32487.611094542201</v>
       </c>
       <c r="C121" s="17">
-        <f>ROUNDDOWN((B121*B$3/100)/(B$4*(1+B$5)),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5">
-      <c r="A122" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B122" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A122" s="42">
+        <v>43483</v>
+      </c>
+      <c r="B122" s="32">
         <f>B121+(990*C121)</f>
         <v>34467.611094542197</v>
       </c>
       <c r="C122" s="17">
-        <f>ROUNDDOWN((B122*B$3/100)/(B$4*(1+B$5)),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5">
-      <c r="A123" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B123" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A123" s="42">
+        <v>43518</v>
+      </c>
+      <c r="B123" s="32">
         <f>B122+(720*C122)</f>
         <v>35907.611094542197</v>
       </c>
       <c r="C123" s="17">
-        <f>ROUNDDOWN((B123*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A124" s="42">
+        <v>43525</v>
+      </c>
+      <c r="B124" s="32">
+        <f>B123+(690*C123)</f>
+        <v>37287.611094542197</v>
+      </c>
+      <c r="C124" s="17">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A125" s="43">
+        <v>43539</v>
+      </c>
+      <c r="B125" s="28">
+        <f>B124-(620*C124)</f>
+        <v>36047.611094542197</v>
+      </c>
+      <c r="C125" s="12">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A126" s="43">
+        <v>43549</v>
+      </c>
+      <c r="B126" s="28">
+        <f>B125-(650*C125)</f>
+        <v>34747.611094542197</v>
+      </c>
+      <c r="C126" s="12">
+        <f t="shared" ref="C126" si="23">ROUNDDOWN((B126*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -13493,23 +13560,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33">
       <c r="A1" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>435</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>438</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5">
@@ -13527,11 +13594,11 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F2" s="40"/>
-      <c r="G2" s="49" t="s">
-        <v>442</v>
+      <c r="G2" s="51" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -13541,7 +13608,7 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="40"/>
@@ -13550,7 +13617,7 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="50"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="40"/>
@@ -13559,28 +13626,28 @@
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
-      <c r="G5" s="50"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="49.5">
       <c r="A6" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>437</v>
-      </c>
       <c r="F6" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" s="50"/>
+        <v>429</v>
+      </c>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="39">
@@ -13600,9 +13667,9 @@
         <v>0.2</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="G7" s="51"/>
+        <v>430</v>
+      </c>
+      <c r="G7" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
@@ -2656,24 +2656,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="254048512"/>
-        <c:axId val="74006912"/>
+        <c:axId val="194426368"/>
+        <c:axId val="194427904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254048512"/>
+        <c:axId val="194426368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74006912"/>
+        <c:crossAx val="194427904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74006912"/>
+        <c:axId val="194427904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2681,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254048512"/>
+        <c:crossAx val="194426368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,7 +2693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2862,24 +2862,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74072448"/>
-        <c:axId val="74073984"/>
+        <c:axId val="202362240"/>
+        <c:axId val="195167360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74072448"/>
+        <c:axId val="202362240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74073984"/>
+        <c:crossAx val="195167360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74073984"/>
+        <c:axId val="195167360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2887,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74072448"/>
+        <c:crossAx val="202362240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,7 +2900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3069,24 +3069,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74094080"/>
-        <c:axId val="74095616"/>
+        <c:axId val="195191552"/>
+        <c:axId val="195193088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74094080"/>
+        <c:axId val="195191552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74095616"/>
+        <c:crossAx val="195193088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74095616"/>
+        <c:axId val="195193088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74094080"/>
+        <c:crossAx val="195191552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,7 +3106,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3170,24 +3170,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74115328"/>
-        <c:axId val="75956224"/>
+        <c:axId val="195204608"/>
+        <c:axId val="195206144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74115328"/>
+        <c:axId val="195204608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75956224"/>
+        <c:crossAx val="195206144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75956224"/>
+        <c:axId val="195206144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3195,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74115328"/>
+        <c:crossAx val="195204608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3207,7 +3207,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3229,10 +3229,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>资金管理!$A$120:$A$126</c:f>
+              <c:f>资金管理!$A$120:$A$127</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43460</c:v>
                 </c:pt>
@@ -3254,15 +3254,18 @@
                 <c:pt idx="6">
                   <c:v>43549</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43566</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$120:$B$126</c:f>
+              <c:f>资金管理!$B$120:$B$127</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;[Red]\-#,##0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>31167.611094542201</c:v>
                 </c:pt>
@@ -3284,29 +3287,32 @@
                 <c:pt idx="6">
                   <c:v>34747.611094542197</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>35887.611094542197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75996160"/>
-        <c:axId val="76006144"/>
+        <c:axId val="178350336"/>
+        <c:axId val="178712576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75996160"/>
+        <c:axId val="178350336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76006144"/>
+        <c:crossAx val="178712576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76006144"/>
+        <c:axId val="178712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3320,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75996160"/>
+        <c:crossAx val="178350336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3327,7 +3333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3503,19 +3509,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11921,11 +11927,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13522,6 +13528,19 @@
       </c>
       <c r="C126" s="12">
         <f t="shared" ref="C126" si="23">ROUNDDOWN((B126*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A127" s="42">
+        <v>43566</v>
+      </c>
+      <c r="B127" s="32">
+        <f>B126+(570*C126)</f>
+        <v>35887.611094542197</v>
+      </c>
+      <c r="C127" s="17">
+        <f t="shared" ref="C127" si="24">ROUNDDOWN((B127*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>2</v>
       </c>
     </row>

--- a/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 波幅率交易系统_多.xlsx
@@ -2656,24 +2656,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="194426368"/>
-        <c:axId val="194427904"/>
+        <c:axId val="285090944"/>
+        <c:axId val="285092480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194426368"/>
+        <c:axId val="285090944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194427904"/>
+        <c:crossAx val="285092480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194427904"/>
+        <c:axId val="285092480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2681,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194426368"/>
+        <c:crossAx val="285090944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,7 +2693,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2862,24 +2862,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="202362240"/>
-        <c:axId val="195167360"/>
+        <c:axId val="285121152"/>
+        <c:axId val="285172096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202362240"/>
+        <c:axId val="285121152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195167360"/>
+        <c:crossAx val="285172096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195167360"/>
+        <c:axId val="285172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2887,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202362240"/>
+        <c:crossAx val="285121152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,7 +2900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3069,24 +3069,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195191552"/>
-        <c:axId val="195193088"/>
+        <c:axId val="285188096"/>
+        <c:axId val="285189632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195191552"/>
+        <c:axId val="285188096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195193088"/>
+        <c:crossAx val="285189632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195193088"/>
+        <c:axId val="285189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,19 +3094,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195191552"/>
+        <c:crossAx val="285188096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3170,24 +3171,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195204608"/>
-        <c:axId val="195206144"/>
+        <c:axId val="328663808"/>
+        <c:axId val="328665344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195204608"/>
+        <c:axId val="328663808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195206144"/>
+        <c:crossAx val="328665344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195206144"/>
+        <c:axId val="328665344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,19 +3196,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195204608"/>
+        <c:crossAx val="328663808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3229,10 +3231,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>资金管理!$A$120:$A$127</c:f>
+              <c:f>资金管理!$A$120:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43460</c:v>
                 </c:pt>
@@ -3257,15 +3259,21 @@
                 <c:pt idx="7">
                   <c:v>43566</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$120:$B$127</c:f>
+              <c:f>资金管理!$B$120:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;[Red]\-#,##0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>31167.611094542201</c:v>
                 </c:pt>
@@ -3290,29 +3298,35 @@
                 <c:pt idx="7">
                   <c:v>35887.611094542197</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>36947.611094542197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36047.611094542197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178350336"/>
-        <c:axId val="178712576"/>
+        <c:axId val="328693248"/>
+        <c:axId val="328694784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="178350336"/>
+        <c:axId val="328693248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178712576"/>
+        <c:crossAx val="328694784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178712576"/>
+        <c:axId val="328694784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3334,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178350336"/>
+        <c:crossAx val="328693248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,7 +3347,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9822,7 +9836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -11927,11 +11941,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13541,6 +13555,32 @@
       </c>
       <c r="C127" s="17">
         <f t="shared" ref="C127" si="24">ROUNDDOWN((B127*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A128" s="42">
+        <v>43605</v>
+      </c>
+      <c r="B128" s="32">
+        <f>B127+(530*C127)</f>
+        <v>36947.611094542197</v>
+      </c>
+      <c r="C128" s="17">
+        <f t="shared" ref="C128" si="25">ROUNDDOWN((B128*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A129" s="43">
+        <v>43608</v>
+      </c>
+      <c r="B129" s="28">
+        <f>B128-(450*C128)</f>
+        <v>36047.611094542197</v>
+      </c>
+      <c r="C129" s="12">
+        <f t="shared" ref="C129" si="26">ROUNDDOWN((B129*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>2</v>
       </c>
     </row>
